--- a/data_dist/mapa_de_sala.xlsx
+++ b/data_dist/mapa_de_sala.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="17">
   <si>
     <t xml:space="preserve">IdLocalProva</t>
   </si>
@@ -71,36 +71,6 @@
   </si>
   <si>
     <t xml:space="preserve">Cadeira universitária (prancheta fixa)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2º Andar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3º Andar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4º Andar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5º Andar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6º Andar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7º Andar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8º Andar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9º Andar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10º Andar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11º Andar</t>
   </si>
 </sst>
 </file>
@@ -214,7 +184,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -289,7 +259,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>16</v>
@@ -321,7 +291,7 @@
         <v>15</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>16</v>
@@ -353,7 +323,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>16</v>
@@ -417,7 +387,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>16</v>
@@ -449,7 +419,7 @@
         <v>15</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>16</v>
@@ -478,10 +448,10 @@
         <v>7</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>16</v>
@@ -510,10 +480,10 @@
         <v>8</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>16</v>
@@ -542,10 +512,10 @@
         <v>9</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>16</v>
@@ -574,10 +544,10 @@
         <v>10</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>16</v>
@@ -606,7 +576,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I12" s="3" t="n">
         <v>5</v>
@@ -638,7 +608,7 @@
         <v>12</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I13" s="3" t="n">
         <v>5</v>
@@ -670,7 +640,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I14" s="3" t="n">
         <v>5</v>
@@ -702,7 +672,7 @@
         <v>14</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I15" s="3" t="n">
         <v>5</v>
@@ -734,7 +704,7 @@
         <v>15</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I16" s="3" t="n">
         <v>5</v>
@@ -766,7 +736,7 @@
         <v>16</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I17" s="3" t="n">
         <v>5</v>
@@ -798,7 +768,7 @@
         <v>17</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I18" s="3" t="n">
         <v>5</v>
@@ -830,7 +800,7 @@
         <v>18</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I19" s="3" t="n">
         <v>5</v>
@@ -862,7 +832,7 @@
         <v>19</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I20" s="3" t="n">
         <v>5</v>
